--- a/Documentacion/SERGIO CARDEX.xlsx
+++ b/Documentacion/SERGIO CARDEX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equipo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\Residencia\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="256">
   <si>
     <t>formacion generica basica</t>
   </si>
@@ -535,13 +534,271 @@
   </si>
   <si>
     <t>CALIF.</t>
+  </si>
+  <si>
+    <t>EXM</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>Optativas Disciplinares</t>
+  </si>
+  <si>
+    <t>201801</t>
+  </si>
+  <si>
+    <t>201805</t>
+  </si>
+  <si>
+    <t>201809</t>
+  </si>
+  <si>
+    <t>Idioma Extrangero</t>
+  </si>
+  <si>
+    <t>201609</t>
+  </si>
+  <si>
+    <t>201701</t>
+  </si>
+  <si>
+    <t>201705</t>
+  </si>
+  <si>
+    <t>Promedio Ponderado: 83.06</t>
+  </si>
+  <si>
+    <t>ITO011</t>
+  </si>
+  <si>
+    <t>ITO048</t>
+  </si>
+  <si>
+    <t>ITO049</t>
+  </si>
+  <si>
+    <t>Promedio Asignaturas Acreditadas: 83.33</t>
+  </si>
+  <si>
+    <t>IIA01</t>
+  </si>
+  <si>
+    <t>IIA02</t>
+  </si>
+  <si>
+    <t>IIA03</t>
+  </si>
+  <si>
+    <t>IIA04</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>TÓPICOS SELECTOS DE FÍSICA</t>
+  </si>
+  <si>
+    <t>QUÍMICA DE SUELOS</t>
+  </si>
+  <si>
+    <t>INVESTIGACIÓN DE OPERACIONES AMBIENTALES</t>
+  </si>
+  <si>
+    <t>0218011734</t>
+  </si>
+  <si>
+    <t>0218051576</t>
+  </si>
+  <si>
+    <t>0218052280</t>
+  </si>
+  <si>
+    <t>0218091508</t>
+  </si>
+  <si>
+    <t>MÓDULO DE INGLES I</t>
+  </si>
+  <si>
+    <t>MÓDULO DE INGLES II</t>
+  </si>
+  <si>
+    <t>MÓDULO DE INGLES III</t>
+  </si>
+  <si>
+    <t>MÓDULO DE INGLES IV</t>
+  </si>
+  <si>
+    <t>0216094039</t>
+  </si>
+  <si>
+    <t>0217014014</t>
+  </si>
+  <si>
+    <t>0217054014</t>
+  </si>
+  <si>
+    <t>0218014032</t>
+  </si>
+  <si>
+    <t>028094019</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PLAN DE ESTUDIO</t>
+  </si>
+  <si>
+    <t>CRÉDITOS PROMOVIDOS</t>
+  </si>
+  <si>
+    <t>Créditos</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>% Plan</t>
+  </si>
+  <si>
+    <t>% Concepto</t>
+  </si>
+  <si>
+    <t>40.14%</t>
+  </si>
+  <si>
+    <t>62.50%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>35.54%</t>
+  </si>
+  <si>
+    <t>10.45%</t>
+  </si>
+  <si>
+    <t>19.86%</t>
+  </si>
+  <si>
+    <t>2.09%</t>
+  </si>
+  <si>
+    <t>3.14%</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>16.72%</t>
+  </si>
+  <si>
+    <t>46.48%</t>
+  </si>
+  <si>
+    <t>4.18%</t>
+  </si>
+  <si>
+    <t>8.36%</t>
+  </si>
+  <si>
+    <t>9.41%</t>
+  </si>
+  <si>
+    <t>3.48%</t>
+  </si>
+  <si>
+    <t>2.79%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>Formación Genérica Básica</t>
+  </si>
+  <si>
+    <t>Formación Discipinar</t>
+  </si>
+  <si>
+    <t>Tópicos Avanzados</t>
+  </si>
+  <si>
+    <t>Optativas Profesionales</t>
+  </si>
+  <si>
+    <t>Actividades para El Desarrollo Integral</t>
+  </si>
+  <si>
+    <t>Servicio Social</t>
+  </si>
+  <si>
+    <t>Estancia Académica Profesional</t>
+  </si>
+  <si>
+    <t>Totales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,16 +813,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -573,14 +860,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,79 +1402,167 @@
     <col min="1" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="54.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="40.85546875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="11.42578125" style="1"/>
+    <col min="24" max="24" width="21.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="11.42578125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="L5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="L8" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="V8" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="24"/>
+    </row>
+    <row r="9" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>201609</v>
       </c>
@@ -1032,8 +1590,53 @@
       <c r="I9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V9" s="26"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z9" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC9" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>201609</v>
       </c>
@@ -1061,8 +1664,55 @@
       <c r="I10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>201609</v>
       </c>
@@ -1090,8 +1740,55 @@
       <c r="I11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC11" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>201701</v>
       </c>
@@ -1119,8 +1816,55 @@
       <c r="I12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="T12" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC12" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>201701</v>
       </c>
@@ -1148,8 +1892,39 @@
       <c r="I13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="V13" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z13" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>201701</v>
       </c>
@@ -1177,37 +1952,127 @@
       <c r="I14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="L14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z14" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC14" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
         <v>201705</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="32">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z15" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>201805</v>
       </c>
@@ -1235,8 +2100,53 @@
       <c r="I16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="T16" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="V16" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC16" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>201801</v>
       </c>
@@ -1264,8 +2174,53 @@
       <c r="I17" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="R17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="V17" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA17" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC17" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>201805</v>
       </c>
@@ -1293,8 +2248,53 @@
       <c r="I18" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V18" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA18" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC18" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>201809</v>
       </c>
@@ -1322,21 +2322,52 @@
       <c r="I19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="L19" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="V19" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>201609</v>
       </c>
@@ -1364,37 +2395,57 @@
       <c r="I21" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="L21" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
         <v>201609</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="32">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+    </row>
+    <row r="23" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>201609</v>
       </c>
@@ -1423,36 +2474,36 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
         <v>201701</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="32">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>201701</v>
       </c>
@@ -1481,36 +2532,36 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
         <v>201701</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="32">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>201701</v>
       </c>
@@ -1539,36 +2590,36 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
         <v>201701</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="32">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>201701</v>
       </c>
@@ -1597,7 +2648,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>201705</v>
       </c>
@@ -1626,7 +2677,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>201805</v>
       </c>
@@ -1655,36 +2706,36 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
         <v>201705</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="32">
         <v>3</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="G32" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>201705</v>
       </c>
@@ -1713,7 +2764,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>201705</v>
       </c>
@@ -1742,7 +2793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>201805</v>
       </c>
@@ -1770,37 +2821,55 @@
       <c r="I35" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
         <v>201705</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="32">
         <v>3</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>201805</v>
       </c>
@@ -1828,8 +2897,17 @@
       <c r="I37" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>201705</v>
       </c>
@@ -1857,8 +2935,17 @@
       <c r="I38" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>201805</v>
       </c>
@@ -1886,8 +2973,17 @@
       <c r="I39" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>201709</v>
       </c>
@@ -1915,37 +3011,46 @@
       <c r="I40" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
         <v>201709</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="32">
         <v>4</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>201809</v>
       </c>
@@ -1974,7 +3079,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>201709</v>
       </c>
@@ -2003,7 +3108,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>201709</v>
       </c>
@@ -2032,65 +3137,65 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
         <v>201709</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="32">
         <v>4</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
         <v>201809</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="32">
         <v>4</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="G46" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>201709</v>
       </c>
@@ -2119,7 +3224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>201801</v>
       </c>
@@ -2149,31 +3254,31 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="32">
         <v>201801</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="32">
         <v>5</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2207,60 +3312,60 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="32">
         <v>201801</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="32">
         <v>5</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="G51" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="32" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="32">
         <v>201805</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="32">
         <v>6</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="G52" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2352,31 +3457,31 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="32">
         <v>201805</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="32">
         <v>6</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="G56" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2410,31 +3515,31 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="32">
         <v>201809</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="32">
         <v>7</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="G58" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2468,64 +3573,85 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="32">
         <v>201809</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="32">
         <v>7</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="G60" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="32" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="32">
         <v>201809</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="32">
         <v>7</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="G61" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="32" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="L21:T21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Documentacion/SERGIO CARDEX.xlsx
+++ b/Documentacion/SERGIO CARDEX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\Residencia\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josealejandro\Documents\GitHub\Residencia\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="264">
   <si>
     <t>formacion generica basica</t>
   </si>
@@ -792,13 +792,37 @@
   </si>
   <si>
     <t>Totales</t>
+  </si>
+  <si>
+    <t>Abreviaturas:</t>
+  </si>
+  <si>
+    <t>EXM - Tipo De Examen            NA - No Acreditada                 EXT - Examen Extraordinario             REV - Revalidación                                               ERP - Examen de Recuperación de Posgrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRED - Créditos                        NP - No presentó                     CON - Convalidación                           ADI - Actividades Desarrollo Integral               informativo. La certificación de estudios se realiza en la Direccion de </t>
+  </si>
+  <si>
+    <t>CP - Clave de Promoción         S/R - Sin registro                      ESP - Examen Especial                        MOV - Movilidad Estudiantil                              NOTA - Las califificaciones consignadas en este documento son de carácter</t>
+  </si>
+  <si>
+    <t>AC  -Acreditada                         ORD - Examen Ordinario          EQU - Equivalencia                              SS - Servicio Social                                               Administración Escolar, previa petición del interesado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                        UNIDAD REGIONAL LOS MOCHIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                 UNIVERSIDAD AUTÓNOMA DE OCCIDENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                 ADMINISTRACIÓN ESCOLAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,6 +856,21 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -981,28 +1020,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,43 +1076,56 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,15 +1148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>742951</xdr:colOff>
+      <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1105,8 +1180,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="3028950" cy="706755"/>
+          <a:off x="0" y="57150"/>
+          <a:ext cx="2381250" cy="555625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,18 +1466,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A62:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="54.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="14" width="11.42578125" style="1"/>
     <col min="15" max="15" width="40.85546875" style="1" customWidth="1"/>
     <col min="16" max="23" width="11.42578125" style="1"/>
     <col min="24" max="24" width="21.5703125" style="1" customWidth="1"/>
@@ -1413,160 +1494,186 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1"/>
-    </row>
+      <c r="D1" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D2" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D3" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="L5" s="3" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="L5" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="L6" s="6" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="L6" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="41" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="L8" s="15" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="L8" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="V8" s="28" t="s">
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="V8" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="12" t="s">
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="24"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="47"/>
     </row>
     <row r="9" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>201609</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="29">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1578,16 +1685,16 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="F9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="29">
         <v>3</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1617,22 +1724,22 @@
       <c r="T9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="19" t="s">
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="Z9" s="25" t="s">
+      <c r="Z9" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AB9" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AC9" s="52" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1640,7 +1747,7 @@
       <c r="A10" s="2">
         <v>201609</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="29">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1652,63 +1759,63 @@
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="29">
         <v>100</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="G10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="29">
         <v>3</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="R10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="32" t="s">
+      <c r="R10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T10" s="32" t="s">
+      <c r="T10" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="V10" s="30" t="s">
+      <c r="V10" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="19" t="s">
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="Z10" s="19" t="s">
+      <c r="Z10" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="AA10" s="18" t="s">
+      <c r="AA10" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="AB10" s="19" t="s">
+      <c r="AB10" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="AC10" s="29" t="s">
+      <c r="AC10" s="12" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1716,7 +1823,7 @@
       <c r="A11" s="2">
         <v>201609</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="29">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1728,16 +1835,16 @@
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="F11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="29">
         <v>3</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1767,24 +1874,24 @@
       <c r="T11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="V11" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="19" t="s">
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="Z11" s="19" t="s">
+      <c r="Z11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AA11" s="18" t="s">
+      <c r="AA11" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="AB11" s="19" t="s">
+      <c r="AB11" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AC11" s="20" t="s">
+      <c r="AC11" s="11" t="s">
         <v>220</v>
       </c>
     </row>
@@ -1792,7 +1899,7 @@
       <c r="A12" s="2">
         <v>201701</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="29">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1804,63 +1911,63 @@
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="G12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="29">
         <v>3</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="R12" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="32" t="s">
+      <c r="R12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T12" s="32" t="s">
+      <c r="T12" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="V12" s="30" t="s">
+      <c r="V12" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="19" t="s">
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AA12" s="18" t="s">
+      <c r="AA12" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AB12" s="19" t="s">
+      <c r="AB12" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="AC12" s="20" t="s">
+      <c r="AC12" s="11" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1868,7 +1975,7 @@
       <c r="A13" s="2">
         <v>201701</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="29">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1880,47 +1987,47 @@
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="G13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="29">
         <v>3</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="V13" s="30" t="s">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="V13" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="19" t="s">
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="Z13" s="19" t="s">
+      <c r="Z13" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="AA13" s="18" t="s">
+      <c r="AA13" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AB13" s="19" t="s">
+      <c r="AB13" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AC13" s="20" t="s">
+      <c r="AC13" s="11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1928,7 +2035,7 @@
       <c r="A14" s="2">
         <v>201701</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="29">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1940,16 +2047,16 @@
       <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="F14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="29">
         <v>3</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1977,53 +2084,53 @@
       <c r="T14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="V14" s="30" t="s">
+      <c r="V14" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="19" t="s">
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="Z14" s="19" t="s">
+      <c r="Z14" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="AA14" s="18" t="s">
+      <c r="AA14" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AB14" s="19" t="s">
+      <c r="AB14" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="AC14" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="13">
         <v>201705</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="30">
         <v>3</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="30">
         <v>3</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -2051,24 +2158,24 @@
       <c r="T15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="V15" s="30" t="s">
+      <c r="V15" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="19" t="s">
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Z15" s="19" t="s">
+      <c r="Z15" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="AA15" s="18" t="s">
+      <c r="AA15" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="AB15" s="19" t="s">
+      <c r="AB15" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AC15" s="20" t="s">
+      <c r="AC15" s="11" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2076,7 +2183,7 @@
       <c r="A16" s="2">
         <v>201805</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="29">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2088,61 +2195,61 @@
       <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="29">
         <v>3</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32" t="s">
+      <c r="M16" s="13"/>
+      <c r="N16" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="R16" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="32" t="s">
+      <c r="R16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T16" s="32" t="s">
+      <c r="T16" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="V16" s="30" t="s">
+      <c r="V16" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="19" t="s">
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="Z16" s="19" t="s">
+      <c r="Z16" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="AA16" s="18" t="s">
+      <c r="AA16" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AB16" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AC16" s="20" t="s">
+      <c r="AC16" s="11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2150,7 +2257,7 @@
       <c r="A17" s="2">
         <v>201801</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="29">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2162,61 +2269,61 @@
       <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="F17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="29">
         <v>3</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32" t="s">
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="R17" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" s="32" t="s">
+      <c r="R17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T17" s="32" t="s">
+      <c r="T17" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="V17" s="30" t="s">
+      <c r="V17" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="19" t="s">
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="Z17" s="19" t="s">
+      <c r="Z17" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="AA17" s="18" t="s">
+      <c r="AA17" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AB17" s="19" t="s">
+      <c r="AB17" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AC17" s="20" t="s">
+      <c r="AC17" s="11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2224,7 +2331,7 @@
       <c r="A18" s="2">
         <v>201805</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="29">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2236,16 +2343,16 @@
       <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="F18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="29">
         <v>3</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -2273,24 +2380,24 @@
       <c r="T18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="V18" s="30" t="s">
+      <c r="V18" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="19" t="s">
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="Z18" s="19" t="s">
+      <c r="Z18" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="AA18" s="18" t="s">
+      <c r="AA18" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AB18" s="19" t="s">
+      <c r="AB18" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AC18" s="20" t="s">
+      <c r="AC18" s="11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2298,7 +2405,7 @@
       <c r="A19" s="2">
         <v>201809</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="29">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2310,68 +2417,68 @@
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="F19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="29">
         <v>3</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="V19" s="14" t="s">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="V19" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="7" t="s">
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="Z19" s="7" t="s">
+      <c r="Z19" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AA19" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AB19" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AC19" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>201609</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="29">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2383,73 +2490,73 @@
       <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G21" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
     </row>
     <row r="22" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="13">
         <v>201609</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="30">
         <v>1</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="32" t="s">
+      <c r="G22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
     </row>
     <row r="23" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>201609</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="29">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2461,45 +2568,45 @@
       <c r="E23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="G23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="13">
         <v>201701</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="30">
         <v>2</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="32" t="s">
+      <c r="G24" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2507,7 +2614,7 @@
       <c r="A25" s="2">
         <v>201701</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="29">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2519,45 +2626,45 @@
       <c r="E25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="G25" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="13">
         <v>201701</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="30">
         <v>2</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="32" t="s">
+      <c r="G26" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2565,7 +2672,7 @@
       <c r="A27" s="2">
         <v>201701</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="29">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2577,45 +2684,45 @@
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="G27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="13">
         <v>201701</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="30">
         <v>2</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="32" t="s">
+      <c r="G28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2623,7 +2730,7 @@
       <c r="A29" s="2">
         <v>201701</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="29">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2635,16 +2742,16 @@
       <c r="E29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="G29" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2652,7 +2759,7 @@
       <c r="A30" s="2">
         <v>201705</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="29">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2664,16 +2771,16 @@
       <c r="E30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="G30" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="29" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2681,7 +2788,7 @@
       <c r="A31" s="2">
         <v>201805</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="29">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2693,45 +2800,45 @@
       <c r="E31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="G31" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="13">
         <v>201705</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="30">
         <v>3</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="32" t="s">
+      <c r="G32" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2739,7 +2846,7 @@
       <c r="A33" s="2">
         <v>201705</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="29">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2751,16 +2858,16 @@
       <c r="E33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="G33" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="29" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2768,7 +2875,7 @@
       <c r="A34" s="2">
         <v>201705</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="29">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2780,16 +2887,16 @@
       <c r="E34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="G34" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2797,7 +2904,7 @@
       <c r="A35" s="2">
         <v>201805</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="29">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2809,16 +2916,16 @@
       <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="G35" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L35" s="2"/>
@@ -2832,31 +2939,31 @@
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="13">
         <v>201705</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="30">
         <v>3</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="32" t="s">
+      <c r="G36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="30" t="s">
         <v>158</v>
       </c>
       <c r="L36" s="2"/>
@@ -2873,7 +2980,7 @@
       <c r="A37" s="2">
         <v>201805</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="29">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2885,16 +2992,16 @@
       <c r="E37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="G37" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="2"/>
@@ -2911,7 +3018,7 @@
       <c r="A38" s="2">
         <v>201705</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="29">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2923,16 +3030,16 @@
       <c r="E38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="G38" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L38" s="2"/>
@@ -2949,7 +3056,7 @@
       <c r="A39" s="2">
         <v>201805</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="29">
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2961,16 +3068,16 @@
       <c r="E39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="G39" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L39" s="2"/>
@@ -2987,7 +3094,7 @@
       <c r="A40" s="2">
         <v>201709</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="29">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2999,16 +3106,16 @@
       <c r="E40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="G40" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="29" t="s">
         <v>157</v>
       </c>
       <c r="L40" s="2"/>
@@ -3022,31 +3129,31 @@
       <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="13">
         <v>201709</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="30">
         <v>4</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="32" t="s">
+      <c r="G41" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3054,7 +3161,7 @@
       <c r="A42" s="2">
         <v>201809</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="29">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3066,16 +3173,16 @@
       <c r="E42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="G42" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3083,7 +3190,7 @@
       <c r="A43" s="2">
         <v>201709</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="29">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3095,16 +3202,16 @@
       <c r="E43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="G43" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3112,7 +3219,7 @@
       <c r="A44" s="2">
         <v>201709</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="29">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3124,74 +3231,74 @@
       <c r="E44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="G44" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
+      <c r="A45" s="13">
         <v>201709</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="30">
         <v>4</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="32" t="s">
+      <c r="G45" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
+      <c r="A46" s="13">
         <v>201809</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="30">
         <v>4</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="32" t="s">
+      <c r="G46" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3199,7 +3306,7 @@
       <c r="A47" s="2">
         <v>201709</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="29">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3211,16 +3318,16 @@
       <c r="E47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="G47" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="29" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3228,7 +3335,7 @@
       <c r="A48" s="2">
         <v>201801</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="29">
         <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3240,45 +3347,45 @@
       <c r="E48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="G48" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="A49" s="13">
         <v>201801</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="30">
         <v>5</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="32" t="s">
+      <c r="G49" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3286,7 +3393,7 @@
       <c r="A50" s="2">
         <v>201801</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="29">
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3298,74 +3405,74 @@
       <c r="E50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="G50" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
+      <c r="A51" s="13">
         <v>201801</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="30">
         <v>5</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="32" t="s">
+      <c r="G51" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I51" s="30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
+      <c r="A52" s="13">
         <v>201805</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="30">
         <v>6</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="32" t="s">
+      <c r="G52" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I52" s="32" t="s">
+      <c r="I52" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3373,7 +3480,7 @@
       <c r="A53" s="2">
         <v>201809</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="29">
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3385,16 +3492,16 @@
       <c r="E53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="G53" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="29" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3402,7 +3509,7 @@
       <c r="A54" s="2">
         <v>201805</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="29">
         <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3414,16 +3521,16 @@
       <c r="E54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="G54" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="29" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3431,7 +3538,7 @@
       <c r="A55" s="2">
         <v>201805</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="29">
         <v>6</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3443,45 +3550,45 @@
       <c r="E55" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="G55" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
+      <c r="A56" s="13">
         <v>201805</v>
       </c>
-      <c r="B56" s="32">
+      <c r="B56" s="30">
         <v>6</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="G56" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="32" t="s">
+      <c r="G56" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I56" s="32" t="s">
+      <c r="I56" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3489,7 +3596,7 @@
       <c r="A57" s="2">
         <v>201809</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="29">
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3501,45 +3608,45 @@
       <c r="E57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="G57" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
+      <c r="A58" s="13">
         <v>201809</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="30">
         <v>7</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="G58" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="32" t="s">
+      <c r="G58" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I58" s="32" t="s">
+      <c r="I58" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3547,7 +3654,7 @@
       <c r="A59" s="2">
         <v>201809</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="29">
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3559,79 +3666,180 @@
       <c r="E59" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="G59" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32">
+      <c r="A60" s="13">
         <v>201809</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="30">
         <v>7</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="G60" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="32" t="s">
+      <c r="G60" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I60" s="32" t="s">
+      <c r="I60" s="30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32">
+      <c r="A61" s="13">
         <v>201809</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="30">
         <v>7</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="32" t="s">
+      <c r="G61" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I61" s="32" t="s">
+      <c r="I61" s="30" t="s">
         <v>158</v>
       </c>
     </row>
+    <row r="62" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+    </row>
+    <row r="64" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+    </row>
+    <row r="65" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+    </row>
+    <row r="66" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="L21:T21"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="L13:T13"/>
     <mergeCell ref="V17:X17"/>
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="V19:X19"/>
@@ -3643,16 +3851,8 @@
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="V15:X15"/>
     <mergeCell ref="V16:X16"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="L8:T8"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="L21:T21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
